--- a/config/MoveClipConfig.xlsx
+++ b/config/MoveClipConfig.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\work\egret\h5\jrdh\conf\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12600"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>纹理</t>
-  </si>
-  <si>
-    <t>配置</t>
+    <t>特效图片文件</t>
+  </si>
+  <si>
+    <t>特效json文件</t>
   </si>
   <si>
     <t>mc名称</t>
@@ -38,6 +33,9 @@
     <t>播放</t>
   </si>
   <si>
+    <t>播放持续时间</t>
+  </si>
+  <si>
     <t>播放次数 -1 无限循环</t>
   </si>
   <si>
@@ -62,6 +60,9 @@
     <t>play</t>
   </si>
   <si>
+    <t>frameRate</t>
+  </si>
+  <si>
     <t>times</t>
   </si>
   <si>
@@ -77,6 +78,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>int[]</t>
   </si>
   <si>
@@ -168,13 +172,61 @@
   </si>
   <si>
     <t>PK_Lightning</t>
+  </si>
+  <si>
+    <t>football_man_tex_png</t>
+  </si>
+  <si>
+    <t>football_man_mc_json</t>
+  </si>
+  <si>
+    <t>football_man</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0.6,0.6</t>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+  </si>
+  <si>
+    <t>stockindex_interval_tex_png</t>
+  </si>
+  <si>
+    <t>stockindex_interval_mc_json</t>
+  </si>
+  <si>
+    <t>stockindex_interval</t>
+  </si>
+  <si>
+    <t>1.54,1.5</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>loading_EEG_tex_png</t>
+  </si>
+  <si>
+    <t>loading_EEG_mc_json</t>
+  </si>
+  <si>
+    <t>loading_EEG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -188,18 +240,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +404,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,13 +614,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -261,14 +881,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -341,9 +1005,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1414,31 +2075,33 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IL14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="3" width="23.75" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="4" customWidth="1"/>
-    <col min="8" max="246" width="9" style="3" customWidth="1"/>
-    <col min="247" max="16384" width="9" style="5"/>
+    <col min="2" max="3" width="26.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="4" customWidth="1"/>
+    <col min="9" max="247" width="9" style="3" customWidth="1"/>
+    <col min="248" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1448,293 +2111,520 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="15.95" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="15.95" customHeight="1" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="15.95" customHeight="1" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3">
         <v>-1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="15.95" customHeight="1" spans="1:8">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" ht="15.95" customHeight="1" spans="1:8">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3">
         <v>-1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="15.95" customHeight="1" spans="1:8">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
         <v>-1</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="15.95" customHeight="1" spans="1:8">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
         <v>-1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="15.95" customHeight="1" spans="1:8">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3">
         <v>-1</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>41</v>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
         <v>-1</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3">
         <v>-1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="G12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1742,80 +2632,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="15.95" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.95" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.95" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.95" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.95" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.95" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.95" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.95" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.95" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.95" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1823,9 +2716,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1833,80 +2725,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="15.95" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.95" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.95" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.95" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.95" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.95" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.95" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.95" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.95" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.95" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1914,9 +2809,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
